--- a/tests/databooks/programdata_sir.xlsx
+++ b/tests/databooks/programdata_sir.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Populations &amp; programs" sheetId="2" r:id="rId1"/>
-    <sheet name="Program data" sheetId="3" r:id="rId2"/>
+    <sheet name="Program spend data" sheetId="3" r:id="rId2"/>
+    <sheet name="Program effects" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="45">
   <si>
     <t>Populations &amp; programs</t>
   </si>
@@ -51,9 +52,6 @@
     <t>OR</t>
   </si>
   <si>
-    <t>Coverage</t>
-  </si>
-  <si>
     <t>Adults</t>
   </si>
   <si>
@@ -85,6 +83,87 @@
   </si>
   <si>
     <t>Harm reduction 2</t>
+  </si>
+  <si>
+    <t>Targeted to (populations)</t>
+  </si>
+  <si>
+    <t>Targeted to (compartments)</t>
+  </si>
+  <si>
+    <t>Susceptible</t>
+  </si>
+  <si>
+    <t>Infected</t>
+  </si>
+  <si>
+    <t>Recovered</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>Eg., imagine this is a flu model, and the intervention is a campaign telling sick people to stay home</t>
+  </si>
+  <si>
+    <t>E.g., imagine this is a flu model, and the intervention is encouraging hand-washing</t>
+  </si>
+  <si>
+    <t>Number covered</t>
+  </si>
+  <si>
+    <t>Transmission probability per contact</t>
+  </si>
+  <si>
+    <t>Number of contacts annually</t>
+  </si>
+  <si>
+    <t>Average duration of infections (years)</t>
+  </si>
+  <si>
+    <t>Death rate for infected people</t>
+  </si>
+  <si>
+    <t>Death rate for susceptible people</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another modality of the handwashing intervention that also encourages staying at home when sick  </t>
+  </si>
+  <si>
+    <t>Effects of the 2 HW progs</t>
+  </si>
+  <si>
+    <t>Effects of the 2 stay-home progs</t>
+  </si>
+  <si>
+    <t>Value with no interventions</t>
+  </si>
+  <si>
+    <t>Best attainable value</t>
+  </si>
+  <si>
+    <t>Blank - no programs affect this</t>
+  </si>
+  <si>
+    <t>Coverage interaction</t>
+  </si>
+  <si>
+    <t>Impact interaction</t>
+  </si>
+  <si>
+    <t>Synergistic</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>Additive</t>
+  </si>
+  <si>
+    <t>Value for a person covered by this program alone:</t>
   </si>
 </sst>
 </file>
@@ -95,7 +174,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,8 +221,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +280,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF18C1FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7EBFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -181,7 +314,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -192,8 +325,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -223,9 +358,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="12">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Explanatory Text" xfId="10" builtinId="53"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -235,6 +403,7 @@
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -531,106 +700,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="50.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="9" width="16.6640625" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="2.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.33203125" customWidth="1"/>
+    <col min="8" max="11" width="9.83203125" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="4">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="M5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" s="3">
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4">
         <v>1</v>
       </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -642,7 +874,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -650,6 +882,7 @@
     <col min="3" max="3" width="20.6640625" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -703,7 +936,7 @@
         <v>Risk avoidance</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="8">
         <v>5</v>
@@ -725,7 +958,7 @@
         <v>Risk avoidance</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D5" s="7">
         <f>D3/D4</f>
@@ -746,7 +979,7 @@
         <v>Risk avoidance</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="5"/>
@@ -769,7 +1002,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>500000</v>
+        <v>200000</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -786,16 +1019,14 @@
         <v>Harm reduction 1</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="8">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="9">
-        <v>7</v>
-      </c>
+      <c r="G9" s="9"/>
       <c r="H9" s="4"/>
       <c r="I9" s="6" t="s">
         <v>6</v>
@@ -808,11 +1039,11 @@
         <v>Harm reduction 1</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D10" s="7">
         <f>D8/D9</f>
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -829,12 +1060,12 @@
         <v>Harm reduction 1</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="5"/>
       <c r="F11" s="7">
-        <v>4000000</v>
+        <v>500000</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -852,7 +1083,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>500000</v>
+        <v>300000</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -869,16 +1100,14 @@
         <v>Harm reduction 2</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="8">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="9">
-        <v>7</v>
-      </c>
+      <c r="G14" s="9"/>
       <c r="H14" s="4"/>
       <c r="I14" s="6" t="s">
         <v>6</v>
@@ -891,11 +1120,11 @@
         <v>Harm reduction 2</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D15" s="7">
         <f>D13/D14</f>
-        <v>100000</v>
+        <v>12000</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -912,19 +1141,19 @@
         <v>Harm reduction 2</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="7">
-        <v>4000000</v>
-      </c>
+      <c r="F16" s="7"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="4"/>
+      <c r="J16" s="4">
+        <v>500000</v>
+      </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="str">
@@ -935,7 +1164,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="7">
-        <v>500000</v>
+        <v>3500000</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -952,10 +1181,10 @@
         <v>Treatment 1</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="8">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -974,11 +1203,11 @@
         <v>Treatment 1</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D20" s="7">
         <f>D18/D19</f>
-        <v>100000</v>
+        <v>29166.666666666668</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -995,13 +1224,13 @@
         <v>Treatment 1</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="D21" s="7">
+        <v>10000000</v>
+      </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="7">
-        <v>4000000</v>
-      </c>
+      <c r="F21" s="7"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="6" t="s">
@@ -1018,11 +1247,13 @@
         <v>5</v>
       </c>
       <c r="D23" s="7">
-        <v>500000</v>
+        <v>1500000</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="G23" s="7">
+        <v>2500000</v>
+      </c>
       <c r="H23" s="5"/>
       <c r="I23" s="6" t="s">
         <v>6</v>
@@ -1035,15 +1266,15 @@
         <v>Treatment 2</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24" s="8">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="9">
-        <v>7</v>
+      <c r="G24" s="8">
+        <v>80</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="6" t="s">
@@ -1057,15 +1288,18 @@
         <v>Treatment 2</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D25" s="7">
         <f>D23/D24</f>
-        <v>100000</v>
+        <v>15000</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="G25" s="7">
+        <f>G23/G24</f>
+        <v>31250</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="6" t="s">
         <v>6</v>
@@ -1078,14 +1312,16 @@
         <v>Treatment 2</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="D26" s="7">
+        <v>5000000</v>
+      </c>
       <c r="E26" s="5"/>
-      <c r="F26" s="7">
-        <v>4000000</v>
-      </c>
-      <c r="G26" s="5"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7">
+        <v>8000000</v>
+      </c>
       <c r="H26" s="5"/>
       <c r="I26" s="6" t="s">
         <v>6</v>
@@ -1096,4 +1332,637 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="2.6640625" customWidth="1"/>
+    <col min="6" max="7" width="11.83203125" customWidth="1"/>
+    <col min="8" max="8" width="2.33203125" customWidth="1"/>
+    <col min="9" max="13" width="11.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="19"/>
+    </row>
+    <row r="2" spans="1:21" ht="40" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+      <c r="C2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$3</f>
+        <v>Risk avoidance</v>
+      </c>
+      <c r="J2" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$4</f>
+        <v>Harm reduction 1</v>
+      </c>
+      <c r="K2" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>Harm reduction 2</v>
+      </c>
+      <c r="L2" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>Treatment 1</v>
+      </c>
+      <c r="M2" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>Treatment 2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="G3" s="21">
+        <v>1E-3</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K3" s="21">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="O3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+    </row>
+    <row r="5" spans="1:21" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="20"/>
+      <c r="N5"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="O6" s="19"/>
+    </row>
+    <row r="7" spans="1:21" ht="40" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="C7" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$3</f>
+        <v>Risk avoidance</v>
+      </c>
+      <c r="J7" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$4</f>
+        <v>Harm reduction 1</v>
+      </c>
+      <c r="K7" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>Harm reduction 2</v>
+      </c>
+      <c r="L7" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>Treatment 1</v>
+      </c>
+      <c r="M7" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>Treatment 2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21">
+        <v>100</v>
+      </c>
+      <c r="G8" s="21">
+        <v>10</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21">
+        <v>15</v>
+      </c>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21">
+        <v>20</v>
+      </c>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="O8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+    </row>
+    <row r="10" spans="1:21" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="20"/>
+      <c r="N10"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="O11" s="19"/>
+    </row>
+    <row r="12" spans="1:21" ht="40" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="C12" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$3</f>
+        <v>Risk avoidance</v>
+      </c>
+      <c r="J12" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$4</f>
+        <v>Harm reduction 1</v>
+      </c>
+      <c r="K12" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>Harm reduction 2</v>
+      </c>
+      <c r="L12" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>Treatment 1</v>
+      </c>
+      <c r="M12" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>Treatment 2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21">
+        <v>8</v>
+      </c>
+      <c r="G13" s="21">
+        <v>3</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21">
+        <v>4</v>
+      </c>
+      <c r="M13" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+    </row>
+    <row r="15" spans="1:21" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="20"/>
+      <c r="N15"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="O16" s="19"/>
+    </row>
+    <row r="17" spans="1:21" ht="40" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="C17" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$3</f>
+        <v>Risk avoidance</v>
+      </c>
+      <c r="J17" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$4</f>
+        <v>Harm reduction 1</v>
+      </c>
+      <c r="K17" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>Harm reduction 2</v>
+      </c>
+      <c r="L17" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>Treatment 1</v>
+      </c>
+      <c r="M17" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>Treatment 2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="G18" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M18" s="21">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+    </row>
+    <row r="20" spans="1:21" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="20"/>
+      <c r="N20"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="O21" s="19"/>
+    </row>
+    <row r="22" spans="1:21" ht="40" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="C22" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$3</f>
+        <v>Risk avoidance</v>
+      </c>
+      <c r="J22" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$4</f>
+        <v>Harm reduction 1</v>
+      </c>
+      <c r="K22" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>Harm reduction 2</v>
+      </c>
+      <c r="L22" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>Treatment 1</v>
+      </c>
+      <c r="M22" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>Treatment 2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="O23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8 C13 C18 C3 C23">
+      <formula1>"Random,Nested,Additive"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D3 D8 D13 D18 D23">
+      <formula1>"Synergistic,Best"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/databooks/programdata_sir.xlsx
+++ b/tests/databooks/programdata_sir.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="24940" windowHeight="13400" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="24940" windowHeight="13400"/>
   </bookViews>
   <sheets>
     <sheet name="Populations &amp; programs" sheetId="2" r:id="rId1"/>
@@ -700,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -717,7 +717,7 @@
     <col min="12" max="12" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -728,7 +728,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -751,7 +751,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -770,11 +770,8 @@
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-      <c r="M3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -795,11 +792,8 @@
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -820,11 +814,8 @@
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="M5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -844,7 +835,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -863,6 +854,21 @@
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -873,7 +879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>

--- a/tests/databooks/programdata_sir.xlsx
+++ b/tests/databooks/programdata_sir.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="24940" windowHeight="13400"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="24940" windowHeight="13400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Populations &amp; programs" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="53">
   <si>
     <t>Populations &amp; programs</t>
   </si>
@@ -164,6 +164,30 @@
   </si>
   <si>
     <t>Value for a person covered by this program alone:</t>
+  </si>
+  <si>
+    <t>transpercontact</t>
+  </si>
+  <si>
+    <t>contacts</t>
+  </si>
+  <si>
+    <t>recrate</t>
+  </si>
+  <si>
+    <t>infdeath</t>
+  </si>
+  <si>
+    <t>susdeath</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>high</t>
   </si>
 </sst>
 </file>
@@ -328,7 +352,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -389,6 +413,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -702,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1342,24 +1369,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33:M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" customWidth="1"/>
     <col min="3" max="4" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="2.6640625" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.83203125" customWidth="1"/>
     <col min="8" max="8" width="2.33203125" customWidth="1"/>
     <col min="9" max="13" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E1" s="12"/>
@@ -1370,7 +1401,7 @@
       <c r="O1" s="19"/>
     </row>
     <row r="2" spans="1:21" ht="40" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="20" t="s">
         <v>39</v>
       </c>
@@ -1407,7 +1438,6 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
       <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
@@ -1417,7 +1447,9 @@
       <c r="D3" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="20"/>
+      <c r="E3" s="25" t="s">
+        <v>50</v>
+      </c>
       <c r="F3" s="21">
         <v>0.01</v>
       </c>
@@ -1438,285 +1470,269 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4"/>
-      <c r="B4"/>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B4" s="15"/>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-    </row>
-    <row r="5" spans="1:21" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="E4" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="21">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G4" s="21">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="K4" s="21">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B5" s="15"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="21">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G5" s="21">
+        <v>1.5E-3</v>
+      </c>
       <c r="H5" s="20"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="20"/>
-      <c r="N5"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="K5" s="21">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+    </row>
+    <row r="6" spans="1:21" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B6"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
-      <c r="E6" s="20"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
       <c r="M6" s="22"/>
-      <c r="O6" s="19"/>
-    </row>
-    <row r="7" spans="1:21" ht="40" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="C7" s="20" t="s">
+      <c r="N6"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+    </row>
+    <row r="7" spans="1:21" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="12"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="20"/>
+      <c r="N7"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="O8" s="19"/>
+    </row>
+    <row r="9" spans="1:21" ht="40" x14ac:dyDescent="0.2">
+      <c r="B9" s="14"/>
+      <c r="C9" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D9" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20" t="s">
+      <c r="E9" s="20"/>
+      <c r="F9" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G9" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20" t="str">
+      <c r="H9" s="20"/>
+      <c r="I9" s="20" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>Risk avoidance</v>
       </c>
-      <c r="J7" s="20" t="str">
+      <c r="J9" s="20" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Harm reduction 1</v>
       </c>
-      <c r="K7" s="20" t="str">
+      <c r="K9" s="20" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Harm reduction 2</v>
       </c>
-      <c r="L7" s="20" t="str">
+      <c r="L9" s="20" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Treatment 1</v>
       </c>
-      <c r="M7" s="20" t="str">
+      <c r="M9" s="20" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Treatment 2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C10" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D10" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21">
+      <c r="E10" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="21">
         <v>100</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G10" s="21">
         <v>10</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="21">
+      <c r="H10" s="20"/>
+      <c r="I10" s="21">
         <v>15</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21">
+      <c r="J10" s="21"/>
+      <c r="K10" s="21">
         <v>20</v>
       </c>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="O8" t="s">
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="O10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-    </row>
-    <row r="10" spans="1:21" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="20"/>
-      <c r="N10"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-    </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>29</v>
-      </c>
+      <c r="B11" s="15"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
+      <c r="E11" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="21">
+        <v>120</v>
+      </c>
+      <c r="G11" s="21">
+        <v>5</v>
+      </c>
       <c r="H11" s="20"/>
-      <c r="I11" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="O11" s="19"/>
-    </row>
-    <row r="12" spans="1:21" ht="40" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="C12" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>37</v>
+      <c r="I11" s="21">
+        <v>10</v>
+      </c>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B12" s="15"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="21">
+        <v>90</v>
+      </c>
+      <c r="G12" s="21">
+        <v>15</v>
       </c>
       <c r="H12" s="20"/>
-      <c r="I12" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$3</f>
-        <v>Risk avoidance</v>
-      </c>
-      <c r="J12" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$4</f>
-        <v>Harm reduction 1</v>
-      </c>
-      <c r="K12" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$5</f>
-        <v>Harm reduction 2</v>
-      </c>
-      <c r="L12" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$6</f>
-        <v>Treatment 1</v>
-      </c>
-      <c r="M12" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$7</f>
-        <v>Treatment 2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21">
-        <v>8</v>
-      </c>
-      <c r="G13" s="21">
-        <v>3</v>
-      </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21">
-        <v>4</v>
-      </c>
-      <c r="M13" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
+      <c r="I12" s="21">
+        <v>20</v>
+      </c>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+    </row>
+    <row r="13" spans="1:21" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B13"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+    </row>
+    <row r="14" spans="1:21" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="12"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="20"/>
       <c r="N14"/>
       <c r="O14" s="17"/>
       <c r="P14" s="17"/>
@@ -1726,151 +1742,144 @@
       <c r="T14" s="17"/>
       <c r="U14" s="17"/>
     </row>
-    <row r="15" spans="1:21" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
       <c r="H15" s="20"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="20"/>
-      <c r="N15"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="I15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="O15" s="19"/>
+    </row>
+    <row r="16" spans="1:21" ht="40" x14ac:dyDescent="0.2">
+      <c r="B16" s="14"/>
+      <c r="C16" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="E16" s="20"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
+      <c r="F16" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="H16" s="20"/>
-      <c r="I16" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="O16" s="19"/>
-    </row>
-    <row r="17" spans="1:21" ht="40" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="C17" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20" t="str">
+      <c r="I16" s="20" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>Risk avoidance</v>
       </c>
-      <c r="J17" s="20" t="str">
+      <c r="J16" s="20" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Harm reduction 1</v>
       </c>
-      <c r="K17" s="20" t="str">
+      <c r="K16" s="20" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Harm reduction 2</v>
       </c>
-      <c r="L17" s="20" t="str">
+      <c r="L16" s="20" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Treatment 1</v>
       </c>
-      <c r="M17" s="20" t="str">
+      <c r="M16" s="20" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Treatment 2</v>
       </c>
     </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B17" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="21">
+        <v>8</v>
+      </c>
+      <c r="G17" s="21">
+        <v>3</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21">
+        <v>4</v>
+      </c>
+      <c r="M17" s="21">
+        <v>4</v>
+      </c>
+    </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="20"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="F18" s="21">
-        <v>0.02</v>
-      </c>
-      <c r="G18" s="21">
-        <v>0.01</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G18" s="21"/>
       <c r="H18" s="20"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
-      <c r="L18" s="21">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="M18" s="21">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19"/>
-      <c r="B19"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B19" s="15"/>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-    </row>
-    <row r="20" spans="1:21" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="20"/>
+      <c r="E19" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="21">
+        <v>10</v>
+      </c>
+      <c r="G19" s="21"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+    </row>
+    <row r="20" spans="1:21" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B20"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
       <c r="N20"/>
       <c r="O20" s="17"/>
       <c r="P20" s="17"/>
@@ -1880,92 +1889,314 @@
       <c r="T20" s="17"/>
       <c r="U20" s="17"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+    <row r="21" spans="1:21" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="12"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="20"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
       <c r="H21" s="20"/>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="20"/>
+      <c r="N21"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="O21" s="19"/>
-    </row>
-    <row r="22" spans="1:21" ht="40" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="C22" s="20" t="s">
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="O22" s="19"/>
+    </row>
+    <row r="23" spans="1:21" ht="40" x14ac:dyDescent="0.2">
+      <c r="B23" s="14"/>
+      <c r="C23" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D23" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20" t="s">
+      <c r="E23" s="20"/>
+      <c r="F23" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G23" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20" t="str">
+      <c r="H23" s="20"/>
+      <c r="I23" s="20" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>Risk avoidance</v>
       </c>
-      <c r="J22" s="20" t="str">
+      <c r="J23" s="20" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Harm reduction 1</v>
       </c>
-      <c r="K22" s="20" t="str">
+      <c r="K23" s="20" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Harm reduction 2</v>
       </c>
-      <c r="L22" s="20" t="str">
+      <c r="L23" s="20" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Treatment 1</v>
       </c>
-      <c r="M22" s="20" t="str">
+      <c r="M23" s="20" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Treatment 2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15" t="s">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B24" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C24" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="G24" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M24" s="21">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B25" s="15"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B26" s="15"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+    </row>
+    <row r="27" spans="1:21" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B27"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+    </row>
+    <row r="28" spans="1:21" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="12"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="20"/>
+      <c r="N28"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="O29" s="19"/>
+    </row>
+    <row r="30" spans="1:21" ht="40" x14ac:dyDescent="0.2">
+      <c r="A30" s="14"/>
+      <c r="C30" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$3</f>
+        <v>Risk avoidance</v>
+      </c>
+      <c r="J30" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$4</f>
+        <v>Harm reduction 1</v>
+      </c>
+      <c r="K30" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>Harm reduction 2</v>
+      </c>
+      <c r="L30" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>Treatment 1</v>
+      </c>
+      <c r="M30" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>Treatment 2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D31" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="O23" t="s">
+      <c r="E31" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="O31" t="s">
         <v>38</v>
       </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="E32" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
+      <c r="E33" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8 C13 C18 C3 C23">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C3 C10 C17 C24 C31">
       <formula1>"Random,Nested,Additive"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D3 D8 D13 D18 D23">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D24 D3 D10 D17 D31">
       <formula1>"Synergistic,Best"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/databooks/programdata_sir.xlsx
+++ b/tests/databooks/programdata_sir.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="53">
   <si>
     <t>Populations &amp; programs</t>
   </si>
@@ -1369,818 +1369,1253 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33:M33"/>
+      <selection activeCell="A8" sqref="A8:W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.83203125" customWidth="1"/>
     <col min="5" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11.83203125" customWidth="1"/>
     <col min="8" max="8" width="2.33203125" customWidth="1"/>
     <col min="9" max="13" width="11.83203125" customWidth="1"/>
+    <col min="14" max="14" width="1.6640625" customWidth="1"/>
+    <col min="15" max="15" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.83203125" customWidth="1"/>
+    <col min="18" max="18" width="2.33203125" customWidth="1"/>
+    <col min="19" max="23" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="C1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13" t="s">
+      <c r="E2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="19"/>
-    </row>
-    <row r="2" spans="1:21" ht="40" x14ac:dyDescent="0.2">
-      <c r="B2" s="14"/>
-      <c r="C2" s="20" t="s">
+      <c r="O2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="X2" s="19"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="13"/>
+      <c r="O3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="13"/>
+      <c r="X3" s="19"/>
+    </row>
+    <row r="4" spans="1:30" ht="40" x14ac:dyDescent="0.2">
+      <c r="B4" s="14"/>
+      <c r="C4" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D4" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="E4" s="20"/>
+      <c r="F4" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G4" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20" t="str">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>Risk avoidance</v>
       </c>
-      <c r="J2" s="20" t="str">
+      <c r="J4" s="20" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Harm reduction 1</v>
       </c>
-      <c r="K2" s="20" t="str">
+      <c r="K4" s="20" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Harm reduction 2</v>
       </c>
-      <c r="L2" s="20" t="str">
+      <c r="L4" s="20" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Treatment 1</v>
       </c>
-      <c r="M2" s="20" t="str">
+      <c r="M4" s="20" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Treatment 2</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
+      <c r="O4" s="20"/>
+      <c r="P4" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$3</f>
+        <v>Risk avoidance</v>
+      </c>
+      <c r="T4" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$4</f>
+        <v>Harm reduction 1</v>
+      </c>
+      <c r="U4" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>Harm reduction 2</v>
+      </c>
+      <c r="V4" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>Treatment 1</v>
+      </c>
+      <c r="W4" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>Treatment 2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D5" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E5" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F5" s="21">
         <v>0.01</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G5" s="21">
         <v>1E-3</v>
-      </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="K3" s="21">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="O3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B4" s="15"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="21">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="G4" s="21">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="K4" s="21">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B5" s="15"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="21">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="G5" s="21">
-        <v>1.5E-3</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="21"/>
       <c r="J5" s="21">
-        <v>4.4999999999999997E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="K5" s="21">
-        <v>3.5000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="L5" s="21"/>
       <c r="M5" s="21"/>
-    </row>
-    <row r="6" spans="1:21" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B6"/>
+      <c r="O5" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>1E-3</v>
+      </c>
+      <c r="R5" s="20"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="U5" s="21">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B6" s="15"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-    </row>
-    <row r="7" spans="1:21" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="12"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+      <c r="E6" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="21">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G6" s="21">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="K6" s="21">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="O6" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="21">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="Q6" s="21">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="R6" s="20"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="U6" s="21">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B7" s="15"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="21">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G7" s="21">
+        <v>1.5E-3</v>
+      </c>
       <c r="H7" s="20"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="20"/>
-      <c r="N7"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="I7" s="21"/>
+      <c r="J7" s="21">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="K7" s="21">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="O7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="21">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>1.5E-3</v>
+      </c>
+      <c r="R7" s="20"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="U7" s="21">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+    </row>
+    <row r="8" spans="1:30" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B8"/>
+      <c r="C8" s="22"/>
+      <c r="E8"/>
+      <c r="F8" s="22"/>
+      <c r="H8"/>
+      <c r="I8" s="22"/>
+      <c r="K8"/>
+      <c r="L8" s="22"/>
+      <c r="N8"/>
+      <c r="O8" s="22"/>
+      <c r="Q8"/>
+      <c r="R8" s="22"/>
+      <c r="U8"/>
+      <c r="V8" s="22"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="17"/>
+    </row>
+    <row r="9" spans="1:30" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="12"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="20"/>
+      <c r="N9"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="13" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="O8" s="19"/>
-    </row>
-    <row r="9" spans="1:21" ht="40" x14ac:dyDescent="0.2">
-      <c r="B9" s="14"/>
-      <c r="C9" s="20" t="s">
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="19"/>
+    </row>
+    <row r="11" spans="1:30" ht="40" x14ac:dyDescent="0.2">
+      <c r="B11" s="14"/>
+      <c r="C11" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G11" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20" t="str">
+      <c r="H11" s="20"/>
+      <c r="I11" s="20" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>Risk avoidance</v>
       </c>
-      <c r="J9" s="20" t="str">
+      <c r="J11" s="20" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Harm reduction 1</v>
       </c>
-      <c r="K9" s="20" t="str">
+      <c r="K11" s="20" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Harm reduction 2</v>
       </c>
-      <c r="L9" s="20" t="str">
+      <c r="L11" s="20" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Treatment 1</v>
       </c>
-      <c r="M9" s="20" t="str">
+      <c r="M11" s="20" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Treatment 2</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B10" s="15" t="s">
+      <c r="O11" s="20"/>
+      <c r="P11" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$3</f>
+        <v>Risk avoidance</v>
+      </c>
+      <c r="T11" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$4</f>
+        <v>Harm reduction 1</v>
+      </c>
+      <c r="U11" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>Harm reduction 2</v>
+      </c>
+      <c r="V11" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>Treatment 1</v>
+      </c>
+      <c r="W11" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>Treatment 2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B12" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C12" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D12" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E12" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="21">
-        <v>100</v>
-      </c>
-      <c r="G10" s="21">
+      <c r="F12" s="21"/>
+      <c r="G12" s="21">
         <v>10</v>
-      </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="21">
-        <v>15</v>
-      </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21">
-        <v>20</v>
-      </c>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="O10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B11" s="15"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="21">
-        <v>120</v>
-      </c>
-      <c r="G11" s="21">
-        <v>5</v>
-      </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21">
-        <v>10</v>
-      </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B12" s="15"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="21">
-        <v>90</v>
-      </c>
-      <c r="G12" s="21">
-        <v>15</v>
       </c>
       <c r="H12" s="20"/>
       <c r="I12" s="21">
+        <v>15</v>
+      </c>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21">
         <v>20</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
-    </row>
-    <row r="13" spans="1:21" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B13"/>
+      <c r="O12" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21">
+        <v>10</v>
+      </c>
+      <c r="R12" s="20"/>
+      <c r="S12" s="21">
+        <v>15</v>
+      </c>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21">
+        <v>20</v>
+      </c>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B13" s="15"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-    </row>
-    <row r="14" spans="1:21" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="12"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="E13" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="21">
+        <v>120</v>
+      </c>
+      <c r="G13" s="21">
+        <v>5</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="21">
+        <v>10</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="O13" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" s="21">
+        <v>120</v>
+      </c>
+      <c r="Q13" s="21">
+        <v>5</v>
+      </c>
+      <c r="R13" s="20"/>
+      <c r="S13" s="21">
+        <v>10</v>
+      </c>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B14" s="15"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="21">
+        <v>90</v>
+      </c>
+      <c r="G14" s="21">
+        <v>15</v>
+      </c>
       <c r="H14" s="20"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="20"/>
-      <c r="N14"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>29</v>
-      </c>
+      <c r="I14" s="21">
+        <v>20</v>
+      </c>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="O14" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" s="21">
+        <v>90</v>
+      </c>
+      <c r="Q14" s="21">
+        <v>15</v>
+      </c>
+      <c r="R14" s="20"/>
+      <c r="S14" s="21">
+        <v>20</v>
+      </c>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+    </row>
+    <row r="15" spans="1:30" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B15"/>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="20"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
       <c r="M15" s="22"/>
-      <c r="O15" s="19"/>
-    </row>
-    <row r="16" spans="1:21" ht="40" x14ac:dyDescent="0.2">
-      <c r="B16" s="14"/>
-      <c r="C16" s="20" t="s">
+      <c r="N15"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+    </row>
+    <row r="16" spans="1:30" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="12"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="20"/>
+      <c r="N16"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="19"/>
+    </row>
+    <row r="18" spans="1:30" ht="40" x14ac:dyDescent="0.2">
+      <c r="B18" s="14"/>
+      <c r="C18" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D18" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20" t="s">
+      <c r="E18" s="20"/>
+      <c r="F18" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G18" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20" t="str">
+      <c r="H18" s="20"/>
+      <c r="I18" s="20" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>Risk avoidance</v>
       </c>
-      <c r="J16" s="20" t="str">
+      <c r="J18" s="20" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Harm reduction 1</v>
       </c>
-      <c r="K16" s="20" t="str">
+      <c r="K18" s="20" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Harm reduction 2</v>
       </c>
-      <c r="L16" s="20" t="str">
+      <c r="L18" s="20" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Treatment 1</v>
       </c>
-      <c r="M16" s="20" t="str">
+      <c r="M18" s="20" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Treatment 2</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B17" s="15" t="s">
+      <c r="O18" s="20"/>
+      <c r="P18" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q18" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$3</f>
+        <v>Risk avoidance</v>
+      </c>
+      <c r="T18" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$4</f>
+        <v>Harm reduction 1</v>
+      </c>
+      <c r="U18" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>Harm reduction 2</v>
+      </c>
+      <c r="V18" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>Treatment 1</v>
+      </c>
+      <c r="W18" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>Treatment 2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B19" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C19" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D19" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E19" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F19" s="21">
         <v>8</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G19" s="21">
         <v>3</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21">
-        <v>4</v>
-      </c>
-      <c r="M17" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B18" s="15"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="21">
-        <v>6</v>
-      </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B19" s="15"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="21">
-        <v>10</v>
-      </c>
-      <c r="G19" s="21"/>
       <c r="H19" s="20"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-    </row>
-    <row r="20" spans="1:21" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B20"/>
+      <c r="L19" s="21">
+        <v>4</v>
+      </c>
+      <c r="M19" s="21">
+        <v>4</v>
+      </c>
+      <c r="O19" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="P19" s="21">
+        <v>8</v>
+      </c>
+      <c r="Q19" s="21">
+        <v>3</v>
+      </c>
+      <c r="R19" s="20"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21">
+        <v>4</v>
+      </c>
+      <c r="W19" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B20" s="15"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-    </row>
-    <row r="21" spans="1:21" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="12"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
+      <c r="E20" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="21">
+        <v>6</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="O20" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="P20" s="21">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B21" s="15"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="21">
+        <v>10</v>
+      </c>
+      <c r="G21" s="21"/>
       <c r="H21" s="20"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="20"/>
-      <c r="N21"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="O21" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" s="21">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+    </row>
+    <row r="22" spans="1:30" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
-      <c r="E22" s="20"/>
+      <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
-      <c r="O22" s="19"/>
-    </row>
-    <row r="23" spans="1:21" ht="40" x14ac:dyDescent="0.2">
-      <c r="B23" s="14"/>
-      <c r="C23" s="20" t="s">
+      <c r="N22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+    </row>
+    <row r="23" spans="1:30" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="12"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="20"/>
+      <c r="N23"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="19"/>
+    </row>
+    <row r="25" spans="1:30" ht="40" x14ac:dyDescent="0.2">
+      <c r="B25" s="14"/>
+      <c r="C25" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D25" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20" t="s">
+      <c r="E25" s="20"/>
+      <c r="F25" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G25" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20" t="str">
+      <c r="H25" s="20"/>
+      <c r="I25" s="20" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>Risk avoidance</v>
       </c>
-      <c r="J23" s="20" t="str">
+      <c r="J25" s="20" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Harm reduction 1</v>
       </c>
-      <c r="K23" s="20" t="str">
+      <c r="K25" s="20" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Harm reduction 2</v>
       </c>
-      <c r="L23" s="20" t="str">
+      <c r="L25" s="20" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Treatment 1</v>
       </c>
-      <c r="M23" s="20" t="str">
+      <c r="M25" s="20" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Treatment 2</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B24" s="15" t="s">
+      <c r="O25" s="20"/>
+      <c r="P25" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q25" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$3</f>
+        <v>Risk avoidance</v>
+      </c>
+      <c r="T25" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$4</f>
+        <v>Harm reduction 1</v>
+      </c>
+      <c r="U25" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>Harm reduction 2</v>
+      </c>
+      <c r="V25" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>Treatment 1</v>
+      </c>
+      <c r="W25" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>Treatment 2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B26" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C26" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D26" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E26" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F26" s="21">
         <v>0.02</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G26" s="21">
         <v>0.01</v>
       </c>
-      <c r="H24" s="20"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="M24" s="21">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B25" s="15"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B26" s="15"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
       <c r="H26" s="20"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-    </row>
-    <row r="27" spans="1:21" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B27"/>
+      <c r="L26" s="21">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M26" s="21">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="O26" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="P26" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="Q26" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="R26" s="20"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W26" s="21">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B27" s="15"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-    </row>
-    <row r="28" spans="1:21" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="12"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
+      <c r="E27" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="O27" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B28" s="15"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
       <c r="H28" s="20"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="20"/>
-      <c r="N28"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>31</v>
-      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="O28" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+    </row>
+    <row r="29" spans="1:30" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B29"/>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
-      <c r="E29" s="20"/>
+      <c r="E29" s="22"/>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="13" t="s">
-        <v>44</v>
-      </c>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
       <c r="M29" s="22"/>
-      <c r="O29" s="19"/>
-    </row>
-    <row r="30" spans="1:21" ht="40" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="C30" s="20" t="s">
+      <c r="N29"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="17"/>
+      <c r="AD29" s="17"/>
+    </row>
+    <row r="30" spans="1:30" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="12"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="20"/>
+      <c r="N30"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="24"/>
+      <c r="V30" s="24"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="17"/>
+      <c r="AD30" s="17"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="19"/>
+    </row>
+    <row r="32" spans="1:30" ht="40" x14ac:dyDescent="0.2">
+      <c r="A32" s="14"/>
+      <c r="C32" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D32" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20" t="s">
+      <c r="E32" s="20"/>
+      <c r="F32" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="G32" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20" t="str">
+      <c r="H32" s="20"/>
+      <c r="I32" s="20" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>Risk avoidance</v>
       </c>
-      <c r="J30" s="20" t="str">
+      <c r="J32" s="20" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Harm reduction 1</v>
       </c>
-      <c r="K30" s="20" t="str">
+      <c r="K32" s="20" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Harm reduction 2</v>
       </c>
-      <c r="L30" s="20" t="str">
+      <c r="L32" s="20" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Treatment 1</v>
       </c>
-      <c r="M30" s="20" t="str">
+      <c r="M32" s="20" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Treatment 2</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15" t="s">
+      <c r="O32" s="20"/>
+      <c r="P32" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q32" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$3</f>
+        <v>Risk avoidance</v>
+      </c>
+      <c r="T32" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$4</f>
+        <v>Harm reduction 1</v>
+      </c>
+      <c r="U32" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>Harm reduction 2</v>
+      </c>
+      <c r="V32" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>Treatment 1</v>
+      </c>
+      <c r="W32" s="20" t="str">
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>Treatment 2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A33" s="14"/>
+      <c r="B33" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C33" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D33" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E33" s="25" t="s">
         <v>50</v>
-      </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="O31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
-      <c r="E32" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
-      <c r="E33" s="25" t="s">
-        <v>52</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
@@ -2190,13 +2625,79 @@
       <c r="K33" s="16"/>
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
+      <c r="O33" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
+      <c r="E34" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="O34" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A35" s="14"/>
+      <c r="B35" s="15"/>
+      <c r="E35" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="O35" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+      <c r="W35" s="16"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C3 C10 C17 C24 C31">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C5 C12 C19 C26 C33">
       <formula1>"Random,Nested,Additive"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D24 D3 D10 D17 D31">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D26 D5 D12 D19 D33">
       <formula1>"Synergistic,Best"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/databooks/programdata_sir.xlsx
+++ b/tests/databooks/programdata_sir.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="53">
   <si>
     <t>Populations &amp; programs</t>
   </si>
@@ -1369,10 +1369,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD35"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:W8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1384,749 +1384,477 @@
     <col min="6" max="7" width="11.83203125" customWidth="1"/>
     <col min="8" max="8" width="2.33203125" customWidth="1"/>
     <col min="9" max="13" width="11.83203125" customWidth="1"/>
-    <col min="14" max="14" width="1.6640625" customWidth="1"/>
-    <col min="15" max="15" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.83203125" customWidth="1"/>
-    <col min="18" max="18" width="2.33203125" customWidth="1"/>
-    <col min="19" max="23" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C1" s="1">
-        <v>2016</v>
-      </c>
-      <c r="P1" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B1" s="11" t="s">
         <v>27</v>
       </c>
+      <c r="E1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="19"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B2" s="11"/>
       <c r="E2" s="12"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="X2" s="19"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B3" s="11"/>
-      <c r="E3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
-      <c r="O3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="13"/>
-      <c r="X3" s="19"/>
-    </row>
-    <row r="4" spans="1:30" ht="40" x14ac:dyDescent="0.2">
-      <c r="B4" s="14"/>
-      <c r="C4" s="20" t="s">
+      <c r="I2" s="13"/>
+      <c r="N2" s="19"/>
+    </row>
+    <row r="3" spans="1:20" ht="40" x14ac:dyDescent="0.2">
+      <c r="B3" s="14"/>
+      <c r="C3" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20" t="str">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>Risk avoidance</v>
       </c>
-      <c r="J4" s="20" t="str">
+      <c r="J3" s="20" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Harm reduction 1</v>
       </c>
-      <c r="K4" s="20" t="str">
+      <c r="K3" s="20" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Harm reduction 2</v>
       </c>
-      <c r="L4" s="20" t="str">
+      <c r="L3" s="20" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Treatment 1</v>
       </c>
-      <c r="M4" s="20" t="str">
+      <c r="M3" s="20" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Treatment 2</v>
       </c>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$3</f>
-        <v>Risk avoidance</v>
-      </c>
-      <c r="T4" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$4</f>
-        <v>Harm reduction 1</v>
-      </c>
-      <c r="U4" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$5</f>
-        <v>Harm reduction 2</v>
-      </c>
-      <c r="V4" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$6</f>
-        <v>Treatment 1</v>
-      </c>
-      <c r="W4" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$7</f>
-        <v>Treatment 2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B5" s="15" t="s">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D4" s="21" t="s">
         <v>41</v>
       </c>
+      <c r="E4" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="G4" s="21">
+        <v>1E-3</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K4" s="21">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B5" s="15"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F5" s="21">
-        <v>0.01</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="G5" s="21">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="21"/>
       <c r="J5" s="21">
-        <v>4.0000000000000001E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="K5" s="21">
-        <v>3.0000000000000001E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="L5" s="21"/>
       <c r="M5" s="21"/>
-      <c r="O5" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="Q5" s="21">
-        <v>1E-3</v>
-      </c>
-      <c r="R5" s="20"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="U5" s="21">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="15"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F6" s="21">
-        <v>8.9999999999999993E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G6" s="21">
-        <v>5.0000000000000001E-4</v>
+        <v>1.5E-3</v>
       </c>
       <c r="H6" s="20"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="K6" s="21">
         <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="K6" s="21">
-        <v>2.5000000000000001E-3</v>
       </c>
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
-      <c r="O6" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6" s="21">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="Q6" s="21">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="R6" s="20"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="U6" s="21">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B7" s="15"/>
+    </row>
+    <row r="7" spans="1:20" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B7"/>
       <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="21">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="G7" s="21">
-        <v>1.5E-3</v>
-      </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="K7" s="21">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="O7" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7" s="21">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="Q7" s="21">
-        <v>1.5E-3</v>
-      </c>
-      <c r="R7" s="20"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="U7" s="21">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-    </row>
-    <row r="8" spans="1:30" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B8"/>
-      <c r="C8" s="22"/>
-      <c r="E8"/>
-      <c r="F8" s="22"/>
-      <c r="H8"/>
-      <c r="I8" s="22"/>
-      <c r="K8"/>
-      <c r="L8" s="22"/>
-      <c r="N8"/>
-      <c r="O8" s="22"/>
-      <c r="Q8"/>
-      <c r="R8" s="22"/>
-      <c r="U8"/>
-      <c r="V8" s="22"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="17"/>
-    </row>
-    <row r="9" spans="1:30" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="12"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="E7"/>
+      <c r="F7" s="22"/>
+      <c r="H7"/>
+      <c r="I7" s="22"/>
+      <c r="K7"/>
+      <c r="L7" s="22"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+    </row>
+    <row r="8" spans="1:20" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="12"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
       <c r="H9" s="20"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="20"/>
-      <c r="N9"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="I9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="19"/>
+    </row>
+    <row r="10" spans="1:20" ht="40" x14ac:dyDescent="0.2">
+      <c r="B10" s="14"/>
+      <c r="C10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="E10" s="20"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
+      <c r="F10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="H10" s="20"/>
-      <c r="I10" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="19"/>
-    </row>
-    <row r="11" spans="1:30" ht="40" x14ac:dyDescent="0.2">
-      <c r="B11" s="14"/>
-      <c r="C11" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20" t="str">
+      <c r="I10" s="20" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>Risk avoidance</v>
       </c>
-      <c r="J11" s="20" t="str">
+      <c r="J10" s="20" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Harm reduction 1</v>
       </c>
-      <c r="K11" s="20" t="str">
+      <c r="K10" s="20" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Harm reduction 2</v>
       </c>
-      <c r="L11" s="20" t="str">
+      <c r="L10" s="20" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Treatment 1</v>
       </c>
-      <c r="M11" s="20" t="str">
+      <c r="M10" s="20" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Treatment 2</v>
       </c>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q11" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$3</f>
-        <v>Risk avoidance</v>
-      </c>
-      <c r="T11" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$4</f>
-        <v>Harm reduction 1</v>
-      </c>
-      <c r="U11" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$5</f>
-        <v>Harm reduction 2</v>
-      </c>
-      <c r="V11" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$6</f>
-        <v>Treatment 1</v>
-      </c>
-      <c r="W11" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$7</f>
-        <v>Treatment 2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B12" s="15" t="s">
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C11" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D11" s="21" t="s">
         <v>41</v>
       </c>
+      <c r="E11" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21">
+        <v>10</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21">
+        <v>15</v>
+      </c>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21">
+        <v>20</v>
+      </c>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B12" s="15"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="21"/>
+        <v>51</v>
+      </c>
+      <c r="F12" s="21">
+        <v>120</v>
+      </c>
       <c r="G12" s="21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H12" s="20"/>
       <c r="I12" s="21">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J12" s="21"/>
-      <c r="K12" s="21">
-        <v>20</v>
-      </c>
+      <c r="K12" s="21"/>
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
-      <c r="O12" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21">
-        <v>10</v>
-      </c>
-      <c r="R12" s="20"/>
-      <c r="S12" s="21">
-        <v>15</v>
-      </c>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21">
-        <v>20</v>
-      </c>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B13" s="15"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F13" s="21">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G13" s="21">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H13" s="20"/>
       <c r="I13" s="21">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
-      <c r="O13" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="P13" s="21">
-        <v>120</v>
-      </c>
-      <c r="Q13" s="21">
-        <v>5</v>
-      </c>
-      <c r="R13" s="20"/>
-      <c r="S13" s="21">
-        <v>10</v>
-      </c>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B14" s="15"/>
+    </row>
+    <row r="14" spans="1:20" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B14"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="21">
-        <v>90</v>
-      </c>
-      <c r="G14" s="21">
-        <v>15</v>
-      </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="21">
-        <v>20</v>
-      </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="O14" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="P14" s="21">
-        <v>90</v>
-      </c>
-      <c r="Q14" s="21">
-        <v>15</v>
-      </c>
-      <c r="R14" s="20"/>
-      <c r="S14" s="21">
-        <v>20</v>
-      </c>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-    </row>
-    <row r="15" spans="1:30" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B15"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-    </row>
-    <row r="16" spans="1:30" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="12"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+    </row>
+    <row r="15" spans="1:20" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="12"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="20"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="20"/>
-      <c r="N16"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="17"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="I16" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="19"/>
+    </row>
+    <row r="17" spans="1:20" ht="40" x14ac:dyDescent="0.2">
+      <c r="B17" s="14"/>
+      <c r="C17" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="E17" s="20"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
+      <c r="F17" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="H17" s="20"/>
-      <c r="I17" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="19"/>
-    </row>
-    <row r="18" spans="1:30" ht="40" x14ac:dyDescent="0.2">
-      <c r="B18" s="14"/>
-      <c r="C18" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20" t="str">
+      <c r="I17" s="20" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>Risk avoidance</v>
       </c>
-      <c r="J18" s="20" t="str">
+      <c r="J17" s="20" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Harm reduction 1</v>
       </c>
-      <c r="K18" s="20" t="str">
+      <c r="K17" s="20" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Harm reduction 2</v>
       </c>
-      <c r="L18" s="20" t="str">
+      <c r="L17" s="20" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Treatment 1</v>
       </c>
-      <c r="M18" s="20" t="str">
+      <c r="M17" s="20" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Treatment 2</v>
       </c>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q18" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$3</f>
-        <v>Risk avoidance</v>
-      </c>
-      <c r="T18" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$4</f>
-        <v>Harm reduction 1</v>
-      </c>
-      <c r="U18" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$5</f>
-        <v>Harm reduction 2</v>
-      </c>
-      <c r="V18" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$6</f>
-        <v>Treatment 1</v>
-      </c>
-      <c r="W18" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$7</f>
-        <v>Treatment 2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B19" s="15" t="s">
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C18" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D18" s="21" t="s">
         <v>42</v>
       </c>
+      <c r="E18" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="21">
+        <v>8</v>
+      </c>
+      <c r="G18" s="21">
+        <v>3</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21">
+        <v>4</v>
+      </c>
+      <c r="M18" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B19" s="15"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
       <c r="E19" s="25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F19" s="21">
-        <v>8</v>
-      </c>
-      <c r="G19" s="21">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G19" s="21"/>
       <c r="H19" s="20"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
       <c r="K19" s="21"/>
-      <c r="L19" s="21">
-        <v>4</v>
-      </c>
-      <c r="M19" s="21">
-        <v>4</v>
-      </c>
-      <c r="O19" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="P19" s="21">
-        <v>8</v>
-      </c>
-      <c r="Q19" s="21">
-        <v>3</v>
-      </c>
-      <c r="R19" s="20"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21">
-        <v>4</v>
-      </c>
-      <c r="W19" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B20" s="15"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F20" s="21">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="20"/>
@@ -2135,266 +1863,160 @@
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
-      <c r="O20" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="P20" s="21">
-        <v>6</v>
-      </c>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B21" s="15"/>
+    </row>
+    <row r="21" spans="1:20" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B21"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
-      <c r="E21" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="21">
-        <v>10</v>
-      </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="O21" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="P21" s="21">
-        <v>10</v>
-      </c>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-    </row>
-    <row r="22" spans="1:30" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="17"/>
-      <c r="AC22" s="17"/>
-      <c r="AD22" s="17"/>
-    </row>
-    <row r="23" spans="1:30" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="12"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+    </row>
+    <row r="22" spans="1:20" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="12"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
       <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
       <c r="H23" s="20"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="20"/>
-      <c r="N23"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="17"/>
-      <c r="AD23" s="17"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="I23" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="19"/>
+    </row>
+    <row r="24" spans="1:20" ht="40" x14ac:dyDescent="0.2">
+      <c r="B24" s="14"/>
+      <c r="C24" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="E24" s="20"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
+      <c r="F24" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="H24" s="20"/>
-      <c r="I24" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="19"/>
-    </row>
-    <row r="25" spans="1:30" ht="40" x14ac:dyDescent="0.2">
-      <c r="B25" s="14"/>
-      <c r="C25" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20" t="str">
+      <c r="I24" s="20" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>Risk avoidance</v>
       </c>
-      <c r="J25" s="20" t="str">
+      <c r="J24" s="20" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Harm reduction 1</v>
       </c>
-      <c r="K25" s="20" t="str">
+      <c r="K24" s="20" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Harm reduction 2</v>
       </c>
-      <c r="L25" s="20" t="str">
+      <c r="L24" s="20" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Treatment 1</v>
       </c>
-      <c r="M25" s="20" t="str">
+      <c r="M24" s="20" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Treatment 2</v>
       </c>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q25" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$3</f>
-        <v>Risk avoidance</v>
-      </c>
-      <c r="T25" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$4</f>
-        <v>Harm reduction 1</v>
-      </c>
-      <c r="U25" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$5</f>
-        <v>Harm reduction 2</v>
-      </c>
-      <c r="V25" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$6</f>
-        <v>Treatment 1</v>
-      </c>
-      <c r="W25" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$7</f>
-        <v>Treatment 2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B26" s="15" t="s">
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B25" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C25" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D25" s="21" t="s">
         <v>42</v>
       </c>
+      <c r="E25" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="G25" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M25" s="21">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B26" s="15"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="21">
-        <v>0.02</v>
-      </c>
-      <c r="G26" s="21">
-        <v>0.01</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
       <c r="H26" s="20"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
-      <c r="L26" s="21">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="M26" s="21">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="O26" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="P26" s="21">
-        <v>0.02</v>
-      </c>
-      <c r="Q26" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="R26" s="20"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="W26" s="21">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B27" s="15"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -2404,218 +2026,139 @@
       <c r="K27" s="21"/>
       <c r="L27" s="21"/>
       <c r="M27" s="21"/>
-      <c r="O27" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B28" s="15"/>
+    </row>
+    <row r="28" spans="1:20" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B28"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
-      <c r="E28" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="O28" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="21"/>
-    </row>
-    <row r="29" spans="1:30" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B29"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="22"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="17"/>
-      <c r="AB29" s="17"/>
-      <c r="AC29" s="17"/>
-      <c r="AD29" s="17"/>
-    </row>
-    <row r="30" spans="1:30" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="12"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+    </row>
+    <row r="29" spans="1:20" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="12"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
       <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
       <c r="H30" s="20"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="20"/>
-      <c r="N30"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="20"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="17"/>
-      <c r="AA30" s="17"/>
-      <c r="AB30" s="17"/>
-      <c r="AC30" s="17"/>
-      <c r="AD30" s="17"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
+      <c r="I30" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="19"/>
+    </row>
+    <row r="31" spans="1:20" ht="40" x14ac:dyDescent="0.2">
+      <c r="A31" s="14"/>
+      <c r="C31" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="E31" s="20"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
+      <c r="F31" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="H31" s="20"/>
-      <c r="I31" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="T31" s="22"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="19"/>
-    </row>
-    <row r="32" spans="1:30" ht="40" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="C32" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20" t="str">
+      <c r="I31" s="20" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>Risk avoidance</v>
       </c>
-      <c r="J32" s="20" t="str">
+      <c r="J31" s="20" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Harm reduction 1</v>
       </c>
-      <c r="K32" s="20" t="str">
+      <c r="K31" s="20" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Harm reduction 2</v>
       </c>
-      <c r="L32" s="20" t="str">
+      <c r="L31" s="20" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Treatment 1</v>
       </c>
-      <c r="M32" s="20" t="str">
+      <c r="M31" s="20" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Treatment 2</v>
       </c>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q32" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$3</f>
-        <v>Risk avoidance</v>
-      </c>
-      <c r="T32" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$4</f>
-        <v>Harm reduction 1</v>
-      </c>
-      <c r="U32" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$5</f>
-        <v>Harm reduction 2</v>
-      </c>
-      <c r="V32" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$6</f>
-        <v>Treatment 1</v>
-      </c>
-      <c r="W32" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$7</f>
-        <v>Treatment 2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" s="14"/>
+      <c r="B32" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
-      <c r="B33" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>41</v>
-      </c>
+      <c r="B33" s="15"/>
       <c r="E33" s="25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
@@ -2625,26 +2168,12 @@
       <c r="K33" s="16"/>
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
-      <c r="O33" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-      <c r="X33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="E34" s="25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
@@ -2654,50 +2183,13 @@
       <c r="K34" s="16"/>
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
-      <c r="O34" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="16"/>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15"/>
-      <c r="E35" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="O35" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C5 C12 C19 C26 C33">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C4 C11 C18 C25 C32">
       <formula1>"Random,Nested,Additive"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D26 D5 D12 D19 D33">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D25 D4 D11 D18 D32">
       <formula1>"Synergistic,Best"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/databooks/programdata_sir.xlsx
+++ b/tests/databooks/programdata_sir.xlsx
@@ -1371,8 +1371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1661,7 +1661,7 @@
         <v>51</v>
       </c>
       <c r="F12" s="21">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G12" s="21">
         <v>5</v>
@@ -1683,7 +1683,7 @@
         <v>52</v>
       </c>
       <c r="F13" s="21">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G13" s="21">
         <v>15</v>

--- a/tests/databooks/programdata_sir.xlsx
+++ b/tests/databooks/programdata_sir.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="24940" windowHeight="13400" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="24940" windowHeight="13400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Populations &amp; programs" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="54">
   <si>
     <t>Populations &amp; programs</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>high</t>
+  </si>
+  <si>
+    <t>Base spend</t>
   </si>
 </sst>
 </file>
@@ -730,7 +733,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -904,16 +907,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.83203125" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -991,10 +994,9 @@
         <v>Risk avoidance</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D5" s="7">
-        <f>D3/D4</f>
         <v>100000</v>
       </c>
       <c r="E5" s="5"/>
@@ -1004,7 +1006,7 @@
       <c r="I5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="str">
@@ -1012,13 +1014,14 @@
         <v>Risk avoidance</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D6" s="7">
+        <f>D3/D4</f>
+        <v>100000</v>
+      </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="7">
-        <v>4000000</v>
-      </c>
+      <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="6" t="s">
@@ -1026,25 +1029,25 @@
       </c>
       <c r="J6" s="4"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$4</f>
-        <v>Harm reduction 1</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="7">
-        <v>200000</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="5"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="str">
+        <f>'Populations &amp; programs'!$C$3</f>
+        <v>Risk avoidance</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="7">
+        <v>4000000</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="str">
@@ -1052,19 +1055,19 @@
         <v>Harm reduction 1</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="8">
-        <v>20</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="D9" s="7">
+        <v>200000</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
       <c r="I9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="str">
@@ -1072,16 +1075,15 @@
         <v>Harm reduction 1</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="7">
-        <f>D8/D9</f>
-        <v>10000</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="D10" s="8">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="4"/>
       <c r="I10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1093,59 +1095,58 @@
         <v>Harm reduction 1</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="7">
-        <v>500000</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="4"/>
       <c r="I11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="str">
+        <f>'Populations &amp; programs'!$C$4</f>
+        <v>Harm reduction 1</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="7">
+        <f>D9/D10</f>
+        <v>10000</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$5</f>
-        <v>Harm reduction 2</v>
+        <f>'Populations &amp; programs'!$C$4</f>
+        <v>Harm reduction 1</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="7">
-        <v>300000</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="F13" s="7">
+        <v>500000</v>
+      </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$5</f>
-        <v>Harm reduction 2</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="8">
-        <v>25</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="4"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="str">
@@ -1153,11 +1154,10 @@
         <v>Harm reduction 2</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D15" s="7">
-        <f>D13/D14</f>
-        <v>12000</v>
+        <v>300000</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1166,7 +1166,7 @@
       <c r="I15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="4"/>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="str">
@@ -1174,30 +1174,51 @@
         <v>Harm reduction 2</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="D16" s="8">
+        <v>25</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="4"/>
       <c r="I16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="4">
-        <v>500000</v>
-      </c>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="str">
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>Harm reduction 2</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="8">
+        <v>50000</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$6</f>
-        <v>Treatment 1</v>
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>Harm reduction 2</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D18" s="7">
-        <v>3500000</v>
+        <f>D15/D16</f>
+        <v>12000</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -1206,50 +1227,27 @@
       <c r="I18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="5"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$6</f>
-        <v>Treatment 1</v>
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>Harm reduction 2</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="8">
-        <v>120</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="9">
-        <v>7</v>
-      </c>
-      <c r="H19" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
       <c r="I19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$6</f>
-        <v>Treatment 1</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="7">
-        <f>D18/D19</f>
-        <v>29166.666666666668</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="4"/>
+      <c r="J19" s="4">
+        <v>500000</v>
+      </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="str">
@@ -1257,109 +1255,210 @@
         <v>Treatment 1</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D21" s="7">
-        <v>10000000</v>
+        <v>3500000</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="7"/>
+      <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J21" s="4"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="str">
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>Treatment 1</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="8">
+        <v>120</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="9">
+        <v>7</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="4"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="str">
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>Treatment 1</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2000000</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="str">
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>Treatment 1</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="7">
+        <f>D21/D22</f>
+        <v>29166.666666666668</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="str">
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>Treatment 1</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="7">
+        <v>10000000</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Treatment 2</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D27" s="7">
         <v>1500000</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="7">
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="7">
         <v>2500000</v>
       </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="3" t="str">
+      <c r="H27" s="5"/>
+      <c r="I27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Treatment 2</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D28" s="8">
         <v>100</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="8">
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="8">
         <v>80</v>
       </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="3" t="str">
+      <c r="H28" s="4"/>
+      <c r="I28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Treatment 2</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="7">
-        <f>D23/D24</f>
-        <v>15000</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="7">
-        <f>G23/G24</f>
-        <v>31250</v>
-      </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="3" t="str">
+      <c r="C29" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="3" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Treatment 2</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C30" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="7">
+        <f>D27/D28</f>
+        <v>15000</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="7">
+        <f>G27/G28</f>
+        <v>31250</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="str">
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>Treatment 2</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D31" s="7">
         <v>5000000</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7">
+      <c r="E31" s="5"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7">
         <v>8000000</v>
       </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" s="4"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1371,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/tests/databooks/programdata_sir.xlsx
+++ b/tests/databooks/programdata_sir.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="24940" windowHeight="13400" activeTab="1"/>
+    <workbookView xWindow="260" yWindow="760" windowWidth="24940" windowHeight="13400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Populations &amp; programs" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="55">
   <si>
     <t>Populations &amp; programs</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Capacity constraints</t>
   </si>
   <si>
-    <t>Unit cost</t>
-  </si>
-  <si>
     <t>Treatment 1</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
     <t>E.g., imagine this is a flu model, and the intervention is encouraging hand-washing</t>
   </si>
   <si>
-    <t>Number covered</t>
-  </si>
-  <si>
     <t>Transmission probability per contact</t>
   </si>
   <si>
@@ -191,6 +185,15 @@
   </si>
   <si>
     <t>Base spend</t>
+  </si>
+  <si>
+    <t>Unit cost: best</t>
+  </si>
+  <si>
+    <t>Unit cost: low</t>
+  </si>
+  <si>
+    <t>Unit cost: high</t>
   </si>
 </sst>
 </file>
@@ -752,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -769,16 +772,16 @@
         <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -786,10 +789,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
@@ -806,10 +809,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
@@ -828,10 +831,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
@@ -850,7 +853,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>8</v>
@@ -870,7 +873,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>8</v>
@@ -887,17 +890,17 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -907,15 +910,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D28" sqref="D28:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.83203125" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
@@ -972,21 +975,19 @@
         <v>Risk avoidance</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="8">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="9">
-        <v>7</v>
-      </c>
-      <c r="H4" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="D4" s="7">
+        <v>100000</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="str">
@@ -994,19 +995,19 @@
         <v>Risk avoidance</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="7">
-        <v>100000</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="F5" s="7">
+        <v>4000000</v>
+      </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="5"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="str">
@@ -1014,16 +1015,17 @@
         <v>Risk avoidance</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="7">
-        <f>D3/D4</f>
-        <v>100000</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="D6" s="8">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="9">
+        <v>7</v>
+      </c>
+      <c r="H6" s="4"/>
       <c r="I6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1035,39 +1037,43 @@
         <v>Risk avoidance</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="7">
-        <v>4000000</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="D7" s="8">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="9">
+        <v>6</v>
+      </c>
+      <c r="H7" s="4"/>
       <c r="I7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$4</f>
-        <v>Harm reduction 1</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="7">
-        <v>200000</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="5"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="str">
+        <f>'Populations &amp; programs'!$C$3</f>
+        <v>Risk avoidance</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="8">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="9">
+        <v>10</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="str">
@@ -1075,19 +1081,19 @@
         <v>Harm reduction 1</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="8">
-        <v>20</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="D10" s="7">
+        <v>200000</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
       <c r="I10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="str">
@@ -1095,7 +1101,7 @@
         <v>Harm reduction 1</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="4"/>
@@ -1113,14 +1119,13 @@
         <v>Harm reduction 1</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="7">
-        <f>D9/D10</f>
-        <v>10000</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="F12" s="7">
+        <v>500000</v>
+      </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="6" t="s">
@@ -1134,59 +1139,59 @@
         <v>Harm reduction 1</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="7">
-        <v>500000</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="D13" s="8">
+        <v>20</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="4"/>
       <c r="I13" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="str">
+        <f>'Populations &amp; programs'!$C$4</f>
+        <v>Harm reduction 1</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="8">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$5</f>
-        <v>Harm reduction 2</v>
+        <f>'Populations &amp; programs'!$C$4</f>
+        <v>Harm reduction 1</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="7">
-        <v>300000</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="D15" s="8">
+        <v>25</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="4"/>
       <c r="I15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$5</f>
-        <v>Harm reduction 2</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="8">
-        <v>25</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="4"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="str">
@@ -1194,19 +1199,19 @@
         <v>Harm reduction 2</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="8">
-        <v>50000</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="D17" s="7">
+        <v>300000</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="4"/>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="str">
@@ -1214,16 +1219,15 @@
         <v>Harm reduction 2</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="7">
-        <f>D15/D16</f>
-        <v>12000</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="D18" s="8">
+        <v>50000</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="4"/>
       <c r="I18" s="6" t="s">
         <v>6</v>
       </c>
@@ -1249,67 +1253,63 @@
         <v>500000</v>
       </c>
     </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="str">
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>Harm reduction 2</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="4"/>
+    </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$6</f>
-        <v>Treatment 1</v>
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>Harm reduction 2</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3500000</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="D21" s="8">
+        <v>20</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="4"/>
       <c r="I21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J21" s="5"/>
+      <c r="J21" s="4"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$6</f>
-        <v>Treatment 1</v>
+        <f>'Populations &amp; programs'!$C$5</f>
+        <v>Harm reduction 2</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D22" s="8">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="9">
-        <v>7</v>
-      </c>
+      <c r="G22" s="9"/>
       <c r="H22" s="4"/>
       <c r="I22" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$6</f>
-        <v>Treatment 1</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="7">
-        <v>2000000</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="4"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="str">
@@ -1317,11 +1317,10 @@
         <v>Treatment 1</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D24" s="7">
-        <f>D21/D22</f>
-        <v>29166.666666666668</v>
+        <v>3500000</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -1330,7 +1329,7 @@
       <c r="I24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J24" s="4"/>
+      <c r="J24" s="5"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="str">
@@ -1338,58 +1337,72 @@
         <v>Treatment 1</v>
       </c>
       <c r="C25" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2000000</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="str">
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>Treatment 1</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D26" s="7">
         <v>10000000</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="4"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$7</f>
-        <v>Treatment 2</v>
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>Treatment 1</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1500000</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="7">
-        <v>2500000</v>
-      </c>
-      <c r="H27" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="D27" s="8">
+        <v>120</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="4"/>
       <c r="I27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J27" s="5"/>
+      <c r="J27" s="4"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$7</f>
-        <v>Treatment 2</v>
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>Treatment 1</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="8">
-        <v>100</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D28" s="8"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="8">
-        <v>80</v>
-      </c>
+      <c r="G28" s="9"/>
       <c r="H28" s="4"/>
       <c r="I28" s="6" t="s">
         <v>6</v>
@@ -1398,13 +1411,13 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$7</f>
-        <v>Treatment 2</v>
+        <f>'Populations &amp; programs'!$C$6</f>
+        <v>Treatment 1</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="D29" s="8"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="9"/>
@@ -1414,51 +1427,133 @@
       </c>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="3" t="str">
-        <f>'Populations &amp; programs'!$C$7</f>
-        <v>Treatment 2</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="7">
-        <f>D27/D28</f>
-        <v>15000</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="7">
-        <f>G27/G28</f>
-        <v>31250</v>
-      </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J30" s="4"/>
-    </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Treatment 2</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D31" s="7">
-        <v>5000000</v>
+        <v>1500000</v>
       </c>
       <c r="E31" s="5"/>
-      <c r="F31" s="7"/>
+      <c r="F31" s="5"/>
       <c r="G31" s="7">
-        <v>8000000</v>
+        <v>2500000</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J31" s="4"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="3" t="str">
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>Treatment 2</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33" s="3" t="str">
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>Treatment 2</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="7">
+        <v>5000000</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7">
+        <v>8000000</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="3" t="str">
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>Treatment 2</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="8">
+        <v>100</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="8">
+        <v>80</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="str">
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>Treatment 2</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="8">
+        <v>80</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="8">
+        <v>60</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="str">
+        <f>'Populations &amp; programs'!$C$7</f>
+        <v>Treatment 2</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="8">
+        <v>120</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="8">
+        <v>100</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1487,15 +1582,15 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E1" s="12"/>
       <c r="H1" s="12"/>
       <c r="I1" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N1" s="19"/>
     </row>
@@ -1509,17 +1604,17 @@
     <row r="3" spans="1:20" ht="40" x14ac:dyDescent="0.2">
       <c r="B3" s="14"/>
       <c r="C3" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H3" s="20"/>
       <c r="I3" s="20" t="str">
@@ -1548,13 +1643,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F4" s="21">
         <v>0.01</v>
@@ -1573,7 +1668,7 @@
       <c r="L4" s="21"/>
       <c r="M4" s="21"/>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -1581,7 +1676,7 @@
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F5" s="21">
         <v>8.9999999999999993E-3</v>
@@ -1605,7 +1700,7 @@
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F6" s="21">
         <v>1.0999999999999999E-2</v>
@@ -1664,10 +1759,10 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -1676,7 +1771,7 @@
       <c r="G9" s="22"/>
       <c r="H9" s="20"/>
       <c r="I9" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
@@ -1687,17 +1782,17 @@
     <row r="10" spans="1:20" ht="40" x14ac:dyDescent="0.2">
       <c r="B10" s="14"/>
       <c r="C10" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H10" s="20"/>
       <c r="I10" s="20" t="str">
@@ -1726,13 +1821,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21">
@@ -1749,7 +1844,7 @@
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
       <c r="N11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
@@ -1757,7 +1852,7 @@
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F12" s="21">
         <v>90</v>
@@ -1779,7 +1874,7 @@
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F13" s="21">
         <v>120</v>
@@ -1840,10 +1935,10 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
@@ -1852,7 +1947,7 @@
       <c r="G16" s="22"/>
       <c r="H16" s="20"/>
       <c r="I16" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
@@ -1863,17 +1958,17 @@
     <row r="17" spans="1:20" ht="40" x14ac:dyDescent="0.2">
       <c r="B17" s="14"/>
       <c r="C17" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H17" s="20"/>
       <c r="I17" s="20" t="str">
@@ -1902,13 +1997,13 @@
         <v>7</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F18" s="21">
         <v>8</v>
@@ -1932,7 +2027,7 @@
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F19" s="21">
         <v>6</v>
@@ -1950,7 +2045,7 @@
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F20" s="21">
         <v>10</v>
@@ -2007,10 +2102,10 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
@@ -2019,7 +2114,7 @@
       <c r="G23" s="22"/>
       <c r="H23" s="20"/>
       <c r="I23" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
@@ -2030,17 +2125,17 @@
     <row r="24" spans="1:20" ht="40" x14ac:dyDescent="0.2">
       <c r="B24" s="14"/>
       <c r="C24" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H24" s="20"/>
       <c r="I24" s="20" t="str">
@@ -2069,13 +2164,13 @@
         <v>7</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F25" s="21">
         <v>0.02</v>
@@ -2099,7 +2194,7 @@
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
@@ -2115,7 +2210,7 @@
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -2170,10 +2265,10 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
@@ -2182,7 +2277,7 @@
       <c r="G30" s="22"/>
       <c r="H30" s="20"/>
       <c r="I30" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
@@ -2193,17 +2288,17 @@
     <row r="31" spans="1:20" ht="40" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="C31" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H31" s="20"/>
       <c r="I31" s="20" t="str">
@@ -2233,13 +2328,13 @@
         <v>7</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
@@ -2250,14 +2345,14 @@
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
       <c r="N32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="15"/>
       <c r="E33" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
@@ -2272,7 +2367,7 @@
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="E34" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>

--- a/tests/databooks/programdata_sir.xlsx
+++ b/tests/databooks/programdata_sir.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="260" yWindow="760" windowWidth="24940" windowHeight="13400" activeTab="1"/>
+    <workbookView xWindow="260" yWindow="760" windowWidth="24940" windowHeight="13400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Populations &amp; programs" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="61">
   <si>
     <t>Populations &amp; programs</t>
   </si>
@@ -194,15 +194,34 @@
   </si>
   <si>
     <t>Unit cost: high</t>
+  </si>
+  <si>
+    <t>Covered by none</t>
+  </si>
+  <si>
+    <t>Covered by 1</t>
+  </si>
+  <si>
+    <t>Covered by 2</t>
+  </si>
+  <si>
+    <t>Covered by both</t>
+  </si>
+  <si>
+    <t>outcome</t>
+  </si>
+  <si>
+    <t>Misc calcs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -358,7 +377,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -423,6 +442,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -912,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -999,9 +1019,7 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="7">
-        <v>4000000</v>
-      </c>
+      <c r="F5" s="7"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="6" t="s">
@@ -1565,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1669,6 +1687,26 @@
       <c r="M4" s="21"/>
       <c r="N4" t="s">
         <v>32</v>
+      </c>
+      <c r="O4" t="str">
+        <f>IF(ISNUMBER(I4),I4-$G4,"")</f>
+        <v/>
+      </c>
+      <c r="P4">
+        <f>IF(ISNUMBER(J4),J4-$G4,"")</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Q4">
+        <f>IF(ISNUMBER(K4),K4-$G4,"")</f>
+        <v>2E-3</v>
+      </c>
+      <c r="R4" t="str">
+        <f>IF(ISNUMBER(L4),L4-$G4,"")</f>
+        <v/>
+      </c>
+      <c r="S4" t="str">
+        <f>IF(ISNUMBER(M4),M4-$G4,"")</f>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -1846,6 +1884,26 @@
       <c r="N11" t="s">
         <v>33</v>
       </c>
+      <c r="O11">
+        <f>IF(ISNUMBER(I11),I11-$G11,"")</f>
+        <v>5</v>
+      </c>
+      <c r="P11" t="str">
+        <f>IF(ISNUMBER(J11),J11-$G11,"")</f>
+        <v/>
+      </c>
+      <c r="Q11">
+        <f>IF(ISNUMBER(K11),K11-$G11,"")</f>
+        <v>10</v>
+      </c>
+      <c r="R11" t="str">
+        <f>IF(ISNUMBER(L11),L11-$G11,"")</f>
+        <v/>
+      </c>
+      <c r="S11" t="str">
+        <f>IF(ISNUMBER(M11),M11-$G11,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B12" s="15"/>
@@ -1920,11 +1978,21 @@
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="20"/>
+      <c r="I15" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="J15" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="K15" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="L15" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="M15" s="22">
+        <v>0.8</v>
+      </c>
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
       <c r="P15" s="17"/>
@@ -1951,8 +2019,6 @@
       </c>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
       <c r="N16" s="19"/>
     </row>
     <row r="17" spans="1:20" ht="40" x14ac:dyDescent="0.2">
@@ -1990,6 +2056,12 @@
       <c r="M17" s="20" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Treatment 2</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>60</v>
+      </c>
+      <c r="S17" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
@@ -2020,6 +2092,29 @@
       </c>
       <c r="M18" s="21">
         <v>4</v>
+      </c>
+      <c r="O18">
+        <f>$L$15*(L18-F18)+$M$15*(M18-F18)+F18</f>
+        <v>3.1999999999999993</v>
+      </c>
+      <c r="P18" s="26">
+        <f>L15*M15*MAX(L18-F18,M18-F18)+(L18-F18)*L15*(1-M15)+(M18-F18)*M15*(1-L15)+F18</f>
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>55</v>
+      </c>
+      <c r="R18">
+        <f>1-SUM(R19:R21)</f>
+        <v>0.12</v>
+      </c>
+      <c r="S18">
+        <f>F18</f>
+        <v>8</v>
+      </c>
+      <c r="T18">
+        <f>R18*S18</f>
+        <v>0.96</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
@@ -2039,6 +2134,21 @@
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
+      <c r="Q19" t="s">
+        <v>56</v>
+      </c>
+      <c r="R19">
+        <f>L15*(1-M15)</f>
+        <v>7.9999999999999988E-2</v>
+      </c>
+      <c r="S19">
+        <f>L18</f>
+        <v>4</v>
+      </c>
+      <c r="T19">
+        <f>R19*S19</f>
+        <v>0.31999999999999995</v>
+      </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B20" s="15"/>
@@ -2057,6 +2167,21 @@
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
+      <c r="Q20" t="s">
+        <v>57</v>
+      </c>
+      <c r="R20">
+        <f>M15*(1-L15)</f>
+        <v>0.48</v>
+      </c>
+      <c r="S20">
+        <f>M18</f>
+        <v>4</v>
+      </c>
+      <c r="T20">
+        <f>R20*S20</f>
+        <v>1.92</v>
+      </c>
     </row>
     <row r="21" spans="1:20" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B21"/>
@@ -2074,10 +2199,21 @@
       <c r="N21" s="17"/>
       <c r="O21" s="17"/>
       <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
+      <c r="Q21" t="s">
+        <v>58</v>
+      </c>
+      <c r="R21">
+        <f>L15*M15</f>
+        <v>0.32000000000000006</v>
+      </c>
+      <c r="S21">
+        <f>MIN(L18:M18)</f>
+        <v>4</v>
+      </c>
+      <c r="T21">
+        <f>R21*S21</f>
+        <v>1.2800000000000002</v>
+      </c>
     </row>
     <row r="22" spans="1:20" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="12"/>
@@ -2098,7 +2234,10 @@
       <c r="Q22" s="17"/>
       <c r="R22" s="17"/>
       <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
+      <c r="T22" s="17">
+        <f>SUM(T18:T21)</f>
+        <v>4.4800000000000004</v>
+      </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -2187,6 +2326,26 @@
       </c>
       <c r="M25" s="21">
         <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="O25" t="str">
+        <f>IF(ISNUMBER(I25),I25-$G25,"")</f>
+        <v/>
+      </c>
+      <c r="P25" t="str">
+        <f>IF(ISNUMBER(J25),J25-$G25,"")</f>
+        <v/>
+      </c>
+      <c r="Q25" t="str">
+        <f>IF(ISNUMBER(K25),K25-$G25,"")</f>
+        <v/>
+      </c>
+      <c r="R25">
+        <f>IF(ISNUMBER(L25),L25-$G25,"")</f>
+        <v>4.9999999999999992E-3</v>
+      </c>
+      <c r="S25">
+        <f>IF(ISNUMBER(M25),M25-$G25,"")</f>
+        <v>9.9999999999999915E-4</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">

--- a/tests/databooks/programdata_sir.xlsx
+++ b/tests/databooks/programdata_sir.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="260" yWindow="760" windowWidth="24940" windowHeight="13400" activeTab="2"/>
+    <workbookView xWindow="260" yWindow="760" windowWidth="24940" windowHeight="13400"/>
   </bookViews>
   <sheets>
     <sheet name="Populations &amp; programs" sheetId="2" r:id="rId1"/>
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1583,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/tests/databooks/programdata_sir.xlsx
+++ b/tests/databooks/programdata_sir.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="62">
   <si>
     <t>Populations &amp; programs</t>
   </si>
@@ -100,12 +100,6 @@
     <t>Dead</t>
   </si>
   <si>
-    <t>Eg., imagine this is a flu model, and the intervention is a campaign telling sick people to stay home</t>
-  </si>
-  <si>
-    <t>E.g., imagine this is a flu model, and the intervention is encouraging hand-washing</t>
-  </si>
-  <si>
     <t>Transmission probability per contact</t>
   </si>
   <si>
@@ -124,9 +118,6 @@
     <t>Random</t>
   </si>
   <si>
-    <t xml:space="preserve">Another modality of the handwashing intervention that also encourages staying at home when sick  </t>
-  </si>
-  <si>
     <t>Effects of the 2 HW progs</t>
   </si>
   <si>
@@ -212,6 +203,18 @@
   </si>
   <si>
     <t>Misc calcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eg., imagine this is a flu model, and </t>
+  </si>
+  <si>
+    <t>• the "Risk avoidance" intervention is a campaign telling sick people to stay home</t>
+  </si>
+  <si>
+    <t>• the "Harm reduction 1" intervention is encouraging hand-washing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• the "Harm reduction 2" intervention encourages both handwashing and staying at home when sick  </t>
   </si>
 </sst>
 </file>
@@ -221,7 +224,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -442,7 +445,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -753,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H7"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -910,17 +913,22 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J11" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J12" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J13" t="s">
-        <v>31</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J14" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -995,7 +1003,7 @@
         <v>Risk avoidance</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D4" s="7">
         <v>100000</v>
@@ -1033,7 +1041,7 @@
         <v>Risk avoidance</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D6" s="8">
         <v>5</v>
@@ -1055,7 +1063,7 @@
         <v>Risk avoidance</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D7" s="8">
         <v>3</v>
@@ -1077,7 +1085,7 @@
         <v>Risk avoidance</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D8" s="8">
         <v>7</v>
@@ -1119,7 +1127,7 @@
         <v>Harm reduction 1</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="4"/>
@@ -1157,7 +1165,7 @@
         <v>Harm reduction 1</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D13" s="8">
         <v>20</v>
@@ -1177,7 +1185,7 @@
         <v>Harm reduction 1</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D14" s="8">
         <v>10</v>
@@ -1197,7 +1205,7 @@
         <v>Harm reduction 1</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D15" s="8">
         <v>25</v>
@@ -1237,7 +1245,7 @@
         <v>Harm reduction 2</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D18" s="8">
         <v>50000</v>
@@ -1277,7 +1285,7 @@
         <v>Harm reduction 2</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="4"/>
@@ -1295,7 +1303,7 @@
         <v>Harm reduction 2</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D21" s="8">
         <v>20</v>
@@ -1315,7 +1323,7 @@
         <v>Harm reduction 2</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D22" s="8">
         <v>30</v>
@@ -1355,7 +1363,7 @@
         <v>Treatment 1</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D25" s="7">
         <v>2000000</v>
@@ -1395,7 +1403,7 @@
         <v>Treatment 1</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D27" s="8">
         <v>120</v>
@@ -1415,7 +1423,7 @@
         <v>Treatment 1</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="4"/>
@@ -1433,7 +1441,7 @@
         <v>Treatment 1</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="4"/>
@@ -1473,7 +1481,7 @@
         <v>Treatment 2</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="4"/>
@@ -1513,7 +1521,7 @@
         <v>Treatment 2</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D34" s="8">
         <v>100</v>
@@ -1535,7 +1543,7 @@
         <v>Treatment 2</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D35" s="8">
         <v>80</v>
@@ -1557,7 +1565,7 @@
         <v>Treatment 2</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D36" s="8">
         <v>120</v>
@@ -1600,15 +1608,15 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E1" s="12"/>
       <c r="H1" s="12"/>
       <c r="I1" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N1" s="19"/>
     </row>
@@ -1622,17 +1630,17 @@
     <row r="3" spans="1:20" ht="40" x14ac:dyDescent="0.2">
       <c r="B3" s="14"/>
       <c r="C3" s="20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H3" s="20"/>
       <c r="I3" s="20" t="str">
@@ -1661,13 +1669,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F4" s="21">
         <v>0.01</v>
@@ -1686,7 +1694,7 @@
       <c r="L4" s="21"/>
       <c r="M4" s="21"/>
       <c r="N4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O4" t="str">
         <f>IF(ISNUMBER(I4),I4-$G4,"")</f>
@@ -1714,7 +1722,7 @@
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F5" s="21">
         <v>8.9999999999999993E-3</v>
@@ -1738,7 +1746,7 @@
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F6" s="21">
         <v>1.0999999999999999E-2</v>
@@ -1797,10 +1805,10 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
@@ -1809,7 +1817,7 @@
       <c r="G9" s="22"/>
       <c r="H9" s="20"/>
       <c r="I9" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
@@ -1820,17 +1828,17 @@
     <row r="10" spans="1:20" ht="40" x14ac:dyDescent="0.2">
       <c r="B10" s="14"/>
       <c r="C10" s="20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H10" s="20"/>
       <c r="I10" s="20" t="str">
@@ -1859,13 +1867,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21">
@@ -1882,7 +1890,7 @@
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
       <c r="N11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O11">
         <f>IF(ISNUMBER(I11),I11-$G11,"")</f>
@@ -1910,7 +1918,7 @@
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F12" s="21">
         <v>90</v>
@@ -1932,7 +1940,7 @@
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F13" s="21">
         <v>120</v>
@@ -2003,10 +2011,10 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
@@ -2015,7 +2023,7 @@
       <c r="G16" s="22"/>
       <c r="H16" s="20"/>
       <c r="I16" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
@@ -2024,17 +2032,17 @@
     <row r="17" spans="1:20" ht="40" x14ac:dyDescent="0.2">
       <c r="B17" s="14"/>
       <c r="C17" s="20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H17" s="20"/>
       <c r="I17" s="20" t="str">
@@ -2058,10 +2066,10 @@
         <v>Treatment 2</v>
       </c>
       <c r="Q17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="S17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
@@ -2069,13 +2077,13 @@
         <v>7</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F18" s="21">
         <v>8</v>
@@ -2102,7 +2110,7 @@
         <v>4.4800000000000004</v>
       </c>
       <c r="Q18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R18">
         <f>1-SUM(R19:R21)</f>
@@ -2122,7 +2130,7 @@
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F19" s="21">
         <v>6</v>
@@ -2135,7 +2143,7 @@
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
       <c r="Q19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R19">
         <f>L15*(1-M15)</f>
@@ -2155,7 +2163,7 @@
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F20" s="21">
         <v>10</v>
@@ -2168,7 +2176,7 @@
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
       <c r="Q20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R20">
         <f>M15*(1-L15)</f>
@@ -2200,7 +2208,7 @@
       <c r="O21" s="17"/>
       <c r="P21" s="17"/>
       <c r="Q21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R21">
         <f>L15*M15</f>
@@ -2241,10 +2249,10 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
@@ -2253,7 +2261,7 @@
       <c r="G23" s="22"/>
       <c r="H23" s="20"/>
       <c r="I23" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
@@ -2264,17 +2272,17 @@
     <row r="24" spans="1:20" ht="40" x14ac:dyDescent="0.2">
       <c r="B24" s="14"/>
       <c r="C24" s="20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H24" s="20"/>
       <c r="I24" s="20" t="str">
@@ -2303,13 +2311,13 @@
         <v>7</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F25" s="21">
         <v>0.02</v>
@@ -2353,7 +2361,7 @@
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
@@ -2369,7 +2377,7 @@
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -2424,10 +2432,10 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
@@ -2436,7 +2444,7 @@
       <c r="G30" s="22"/>
       <c r="H30" s="20"/>
       <c r="I30" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
@@ -2447,17 +2455,17 @@
     <row r="31" spans="1:20" ht="40" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="C31" s="20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H31" s="20"/>
       <c r="I31" s="20" t="str">
@@ -2487,13 +2495,13 @@
         <v>7</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
@@ -2504,14 +2512,14 @@
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
       <c r="N32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="15"/>
       <c r="E33" s="25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
@@ -2526,7 +2534,7 @@
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="E34" s="25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>

--- a/tests/databooks/programdata_sir.xlsx
+++ b/tests/databooks/programdata_sir.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="260" yWindow="760" windowWidth="24940" windowHeight="13400"/>
+    <workbookView xWindow="260" yWindow="760" windowWidth="24940" windowHeight="13400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Populations &amp; programs" sheetId="2" r:id="rId1"/>
@@ -758,7 +758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -1591,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/tests/databooks/programdata_sir.xlsx
+++ b/tests/databooks/programdata_sir.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="42">
   <si>
     <t>Populations &amp; programs</t>
   </si>
@@ -100,54 +100,12 @@
     <t>Dead</t>
   </si>
   <si>
-    <t>Transmission probability per contact</t>
-  </si>
-  <si>
-    <t>Number of contacts annually</t>
-  </si>
-  <si>
-    <t>Average duration of infections (years)</t>
-  </si>
-  <si>
-    <t>Death rate for infected people</t>
-  </si>
-  <si>
-    <t>Death rate for susceptible people</t>
-  </si>
-  <si>
-    <t>Random</t>
-  </si>
-  <si>
-    <t>Effects of the 2 HW progs</t>
-  </si>
-  <si>
-    <t>Effects of the 2 stay-home progs</t>
-  </si>
-  <si>
     <t>Value with no interventions</t>
   </si>
   <si>
     <t>Best attainable value</t>
   </si>
   <si>
-    <t>Blank - no programs affect this</t>
-  </si>
-  <si>
-    <t>Coverage interaction</t>
-  </si>
-  <si>
-    <t>Impact interaction</t>
-  </si>
-  <si>
-    <t>Synergistic</t>
-  </si>
-  <si>
-    <t>Best</t>
-  </si>
-  <si>
-    <t>Additive</t>
-  </si>
-  <si>
     <t>Value for a person covered by this program alone:</t>
   </si>
   <si>
@@ -166,15 +124,6 @@
     <t>susdeath</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
     <t>Base spend</t>
   </si>
   <si>
@@ -187,24 +136,6 @@
     <t>Unit cost: high</t>
   </si>
   <si>
-    <t>Covered by none</t>
-  </si>
-  <si>
-    <t>Covered by 1</t>
-  </si>
-  <si>
-    <t>Covered by 2</t>
-  </si>
-  <si>
-    <t>Covered by both</t>
-  </si>
-  <si>
-    <t>outcome</t>
-  </si>
-  <si>
-    <t>Misc calcs</t>
-  </si>
-  <si>
     <t xml:space="preserve">Eg., imagine this is a flu model, and </t>
   </si>
   <si>
@@ -215,6 +146,15 @@
   </si>
   <si>
     <t xml:space="preserve">• the "Harm reduction 2" intervention encourages both handwashing and staying at home when sick  </t>
+  </si>
+  <si>
+    <t>Adults: best</t>
+  </si>
+  <si>
+    <t>Adults: low</t>
+  </si>
+  <si>
+    <t>Adults: high</t>
   </si>
 </sst>
 </file>
@@ -226,7 +166,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,18 +231,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -380,7 +308,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -414,19 +342,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -436,16 +362,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -913,22 +834,22 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J11" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J12" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J13" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J14" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1003,7 +924,7 @@
         <v>Risk avoidance</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D4" s="7">
         <v>100000</v>
@@ -1041,7 +962,7 @@
         <v>Risk avoidance</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D6" s="8">
         <v>5</v>
@@ -1063,7 +984,7 @@
         <v>Risk avoidance</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D7" s="8">
         <v>3</v>
@@ -1085,7 +1006,7 @@
         <v>Risk avoidance</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D8" s="8">
         <v>7</v>
@@ -1127,7 +1048,7 @@
         <v>Harm reduction 1</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="4"/>
@@ -1165,7 +1086,7 @@
         <v>Harm reduction 1</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D13" s="8">
         <v>20</v>
@@ -1185,7 +1106,7 @@
         <v>Harm reduction 1</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D14" s="8">
         <v>10</v>
@@ -1205,7 +1126,7 @@
         <v>Harm reduction 1</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D15" s="8">
         <v>25</v>
@@ -1245,7 +1166,7 @@
         <v>Harm reduction 2</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D18" s="8">
         <v>50000</v>
@@ -1285,7 +1206,7 @@
         <v>Harm reduction 2</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="4"/>
@@ -1303,7 +1224,7 @@
         <v>Harm reduction 2</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D21" s="8">
         <v>20</v>
@@ -1323,7 +1244,7 @@
         <v>Harm reduction 2</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D22" s="8">
         <v>30</v>
@@ -1363,7 +1284,7 @@
         <v>Treatment 1</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D25" s="7">
         <v>2000000</v>
@@ -1403,7 +1324,7 @@
         <v>Treatment 1</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D27" s="8">
         <v>120</v>
@@ -1423,7 +1344,7 @@
         <v>Treatment 1</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="4"/>
@@ -1441,7 +1362,7 @@
         <v>Treatment 1</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="4"/>
@@ -1481,7 +1402,7 @@
         <v>Treatment 2</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="4"/>
@@ -1521,7 +1442,7 @@
         <v>Treatment 2</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D34" s="8">
         <v>100</v>
@@ -1543,7 +1464,7 @@
         <v>Treatment 2</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D35" s="8">
         <v>80</v>
@@ -1565,7 +1486,7 @@
         <v>Treatment 2</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D36" s="8">
         <v>120</v>
@@ -1589,971 +1510,436 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T34"/>
+  <dimension ref="B1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.83203125" customWidth="1"/>
-    <col min="8" max="8" width="2.33203125" customWidth="1"/>
-    <col min="9" max="13" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="2.33203125" customWidth="1"/>
+    <col min="7" max="11" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="2:20" ht="40" x14ac:dyDescent="0.2">
+      <c r="C2" s="3"/>
+      <c r="D2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="19"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
-      <c r="N2" s="19"/>
-    </row>
-    <row r="3" spans="1:20" ht="40" x14ac:dyDescent="0.2">
-      <c r="B3" s="14"/>
-      <c r="C3" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20" t="str">
+      <c r="E2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18" t="str">
         <f>'Populations &amp; programs'!$C$3</f>
         <v>Risk avoidance</v>
       </c>
-      <c r="J3" s="20" t="str">
+      <c r="H2" s="18" t="str">
         <f>'Populations &amp; programs'!$C$4</f>
         <v>Harm reduction 1</v>
       </c>
-      <c r="K3" s="20" t="str">
+      <c r="I2" s="18" t="str">
         <f>'Populations &amp; programs'!$C$5</f>
         <v>Harm reduction 2</v>
       </c>
-      <c r="L3" s="20" t="str">
+      <c r="J2" s="18" t="str">
         <f>'Populations &amp; programs'!$C$6</f>
         <v>Treatment 1</v>
       </c>
-      <c r="M3" s="20" t="str">
+      <c r="K2" s="18" t="str">
         <f>'Populations &amp; programs'!$C$7</f>
         <v>Treatment 2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B4" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="21" t="s">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="E3" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I3" s="19">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="19">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E4" s="19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="I4" s="19">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="19">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E5" s="19">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="I5" s="19">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="2:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C6"/>
+      <c r="D6" s="20"/>
+      <c r="F6"/>
+      <c r="G6" s="20"/>
+      <c r="I6"/>
+      <c r="J6" s="20"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19">
+        <v>10</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19">
+        <v>15</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19">
+        <v>20</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="19">
+        <v>90</v>
+      </c>
+      <c r="E8" s="19">
+        <v>5</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19">
+        <v>10</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="19">
+        <v>120</v>
+      </c>
+      <c r="E9" s="19">
+        <v>15</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19">
+        <v>20</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+    </row>
+    <row r="10" spans="2:20" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="12"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="21">
+      <c r="C11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="19">
+        <v>8</v>
+      </c>
+      <c r="E11" s="19">
+        <v>3</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19">
+        <v>4</v>
+      </c>
+      <c r="K11" s="19">
+        <v>4</v>
+      </c>
+      <c r="N11" s="22"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="19">
+        <v>6</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="19">
+        <v>10</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+    </row>
+    <row r="14" spans="2:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C14"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="T14" s="15">
+        <f>SUM(R11:R14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="E15" s="19">
         <v>0.01</v>
       </c>
-      <c r="G4" s="21">
-        <v>1E-3</v>
-      </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="K4" s="21">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" t="s">
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K15" s="19">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O4" t="str">
-        <f>IF(ISNUMBER(I4),I4-$G4,"")</f>
-        <v/>
-      </c>
-      <c r="P4">
-        <f>IF(ISNUMBER(J4),J4-$G4,"")</f>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="Q4">
-        <f>IF(ISNUMBER(K4),K4-$G4,"")</f>
-        <v>2E-3</v>
-      </c>
-      <c r="R4" t="str">
-        <f>IF(ISNUMBER(L4),L4-$G4,"")</f>
-        <v/>
-      </c>
-      <c r="S4" t="str">
-        <f>IF(ISNUMBER(M4),M4-$G4,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="15"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="21">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="G5" s="21">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="K5" s="21">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="15"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="21">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="G6" s="21">
-        <v>1.5E-3</v>
-      </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="K6" s="21">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-    </row>
-    <row r="7" spans="1:20" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B7"/>
-      <c r="C7" s="22"/>
-      <c r="E7"/>
-      <c r="F7" s="22"/>
-      <c r="H7"/>
-      <c r="I7" s="22"/>
-      <c r="K7"/>
-      <c r="L7" s="22"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-    </row>
-    <row r="8" spans="1:20" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="12"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="C16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="13" t="s">
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+    </row>
+    <row r="18" spans="2:18" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C18"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="19"/>
-    </row>
-    <row r="10" spans="1:20" ht="40" x14ac:dyDescent="0.2">
-      <c r="B10" s="14"/>
-      <c r="C10" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$3</f>
-        <v>Risk avoidance</v>
-      </c>
-      <c r="J10" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$4</f>
-        <v>Harm reduction 1</v>
-      </c>
-      <c r="K10" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$5</f>
-        <v>Harm reduction 2</v>
-      </c>
-      <c r="L10" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$6</f>
-        <v>Treatment 1</v>
-      </c>
-      <c r="M10" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$7</f>
-        <v>Treatment 2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21">
-        <v>10</v>
-      </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21">
-        <v>15</v>
-      </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21">
-        <v>20</v>
-      </c>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="O11">
-        <f>IF(ISNUMBER(I11),I11-$G11,"")</f>
-        <v>5</v>
-      </c>
-      <c r="P11" t="str">
-        <f>IF(ISNUMBER(J11),J11-$G11,"")</f>
-        <v/>
-      </c>
-      <c r="Q11">
-        <f>IF(ISNUMBER(K11),K11-$G11,"")</f>
-        <v>10</v>
-      </c>
-      <c r="R11" t="str">
-        <f>IF(ISNUMBER(L11),L11-$G11,"")</f>
-        <v/>
-      </c>
-      <c r="S11" t="str">
-        <f>IF(ISNUMBER(M11),M11-$G11,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="15"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="21">
-        <v>90</v>
-      </c>
-      <c r="G12" s="21">
-        <v>5</v>
-      </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21">
-        <v>10</v>
-      </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="15"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="21">
-        <v>120</v>
-      </c>
-      <c r="G13" s="21">
-        <v>15</v>
-      </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="21">
-        <v>20</v>
-      </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-    </row>
-    <row r="14" spans="1:20" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B14"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-    </row>
-    <row r="15" spans="1:20" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="12"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="24">
-        <v>0.1</v>
-      </c>
-      <c r="J15" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="K15" s="24">
-        <v>0.3</v>
-      </c>
-      <c r="L15" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="M15" s="22">
-        <v>0.8</v>
-      </c>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="N16" s="19"/>
-    </row>
-    <row r="17" spans="1:20" ht="40" x14ac:dyDescent="0.2">
-      <c r="B17" s="14"/>
-      <c r="C17" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$3</f>
-        <v>Risk avoidance</v>
-      </c>
-      <c r="J17" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$4</f>
-        <v>Harm reduction 1</v>
-      </c>
-      <c r="K17" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$5</f>
-        <v>Harm reduction 2</v>
-      </c>
-      <c r="L17" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$6</f>
-        <v>Treatment 1</v>
-      </c>
-      <c r="M17" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$7</f>
-        <v>Treatment 2</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>57</v>
-      </c>
-      <c r="S17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="21">
-        <v>8</v>
-      </c>
-      <c r="G18" s="21">
-        <v>3</v>
-      </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21">
-        <v>4</v>
-      </c>
-      <c r="M18" s="21">
-        <v>4</v>
-      </c>
-      <c r="O18">
-        <f>$L$15*(L18-F18)+$M$15*(M18-F18)+F18</f>
-        <v>3.1999999999999993</v>
-      </c>
-      <c r="P18" s="26">
-        <f>L15*M15*MAX(L18-F18,M18-F18)+(L18-F18)*L15*(1-M15)+(M18-F18)*M15*(1-L15)+F18</f>
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>52</v>
-      </c>
-      <c r="R18">
-        <f>1-SUM(R19:R21)</f>
-        <v>0.12</v>
-      </c>
-      <c r="S18">
-        <f>F18</f>
-        <v>8</v>
-      </c>
-      <c r="T18">
-        <f>R18*S18</f>
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="15"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="21">
-        <v>6</v>
-      </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="Q19" t="s">
-        <v>53</v>
-      </c>
-      <c r="R19">
-        <f>L15*(1-M15)</f>
-        <v>7.9999999999999988E-2</v>
-      </c>
-      <c r="S19">
-        <f>L18</f>
-        <v>4</v>
-      </c>
-      <c r="T19">
-        <f>R19*S19</f>
-        <v>0.31999999999999995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="15"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="21">
-        <v>10</v>
-      </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="Q20" t="s">
-        <v>54</v>
-      </c>
-      <c r="R20">
-        <f>M15*(1-L15)</f>
-        <v>0.48</v>
-      </c>
-      <c r="S20">
-        <f>M18</f>
-        <v>4</v>
-      </c>
-      <c r="T20">
-        <f>R20*S20</f>
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" t="s">
-        <v>55</v>
-      </c>
-      <c r="R21">
-        <f>L15*M15</f>
-        <v>0.32000000000000006</v>
-      </c>
-      <c r="S21">
-        <f>MIN(L18:M18)</f>
-        <v>4</v>
-      </c>
-      <c r="T21">
-        <f>R21*S21</f>
-        <v>1.2800000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="12"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17">
-        <f>SUM(T18:T21)</f>
-        <v>4.4800000000000004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="19"/>
-    </row>
-    <row r="24" spans="1:20" ht="40" x14ac:dyDescent="0.2">
-      <c r="B24" s="14"/>
-      <c r="C24" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$3</f>
-        <v>Risk avoidance</v>
-      </c>
-      <c r="J24" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$4</f>
-        <v>Harm reduction 1</v>
-      </c>
-      <c r="K24" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$5</f>
-        <v>Harm reduction 2</v>
-      </c>
-      <c r="L24" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$6</f>
-        <v>Treatment 1</v>
-      </c>
-      <c r="M24" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$7</f>
-        <v>Treatment 2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B25" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="21">
-        <v>0.02</v>
-      </c>
-      <c r="G25" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="M25" s="21">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="O25" t="str">
-        <f>IF(ISNUMBER(I25),I25-$G25,"")</f>
-        <v/>
-      </c>
-      <c r="P25" t="str">
-        <f>IF(ISNUMBER(J25),J25-$G25,"")</f>
-        <v/>
-      </c>
-      <c r="Q25" t="str">
-        <f>IF(ISNUMBER(K25),K25-$G25,"")</f>
-        <v/>
-      </c>
-      <c r="R25">
-        <f>IF(ISNUMBER(L25),L25-$G25,"")</f>
-        <v>4.9999999999999992E-3</v>
-      </c>
-      <c r="S25">
-        <f>IF(ISNUMBER(M25),M25-$G25,"")</f>
-        <v>9.9999999999999915E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B26" s="15"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B27" s="15"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-    </row>
-    <row r="28" spans="1:20" s="18" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B28"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-    </row>
-    <row r="29" spans="1:20" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="12"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="19"/>
-    </row>
-    <row r="31" spans="1:20" ht="40" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="C31" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$3</f>
-        <v>Risk avoidance</v>
-      </c>
-      <c r="J31" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$4</f>
-        <v>Harm reduction 1</v>
-      </c>
-      <c r="K31" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$5</f>
-        <v>Harm reduction 2</v>
-      </c>
-      <c r="L31" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$6</f>
-        <v>Treatment 1</v>
-      </c>
-      <c r="M31" s="20" t="str">
-        <f>'Populations &amp; programs'!$C$7</f>
-        <v>Treatment 2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
-      <c r="E33" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
-      <c r="E34" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
+      <c r="C20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C4 C11 C18 C25 C32">
-      <formula1>"Random,Nested,Additive"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D25 D4 D11 D18 D32">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tests/databooks/programdata_sir.xlsx
+++ b/tests/databooks/programdata_sir.xlsx
@@ -1513,7 +1513,7 @@
   <dimension ref="B1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
